--- a/rewards_C.xlsx
+++ b/rewards_C.xlsx
@@ -443,21 +443,21 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-      <c r="D4">
-        <v>-7.7</v>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-44</v>
+      </c>
+      <c r="D4">
+        <v>-27.9</v>
       </c>
     </row>
   </sheetData>
@@ -492,38 +492,38 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-2.5</v>
-      </c>
-      <c r="C2">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-18.6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-0.3</v>
-      </c>
-      <c r="C4">
-        <v>-0.2</v>
+        <v>-32.4</v>
+      </c>
+      <c r="C2">
+        <v>-39.4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-45.9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-66.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-60.4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -564,38 +564,38 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="D2">
-        <v>-16.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-2.9</v>
-      </c>
-      <c r="D4">
-        <v>-7.9</v>
+        <v>-28.7</v>
+      </c>
+      <c r="D2">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-36.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-17.2</v>
+      </c>
+      <c r="D4">
+        <v>-32.1</v>
       </c>
     </row>
   </sheetData>
@@ -630,41 +630,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-8.6</v>
-      </c>
-      <c r="C2">
-        <v>-10.1</v>
-      </c>
-      <c r="D2">
-        <v>-10.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-10.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-8.1</v>
-      </c>
-      <c r="C4">
-        <v>-10.8</v>
-      </c>
-      <c r="D4">
-        <v>-9.300000000000001</v>
+        <v>-58.5</v>
+      </c>
+      <c r="C2">
+        <v>-55</v>
+      </c>
+      <c r="D2">
+        <v>-52.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-58.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-52.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-31.6</v>
+      </c>
+      <c r="C4">
+        <v>-20.8</v>
+      </c>
+      <c r="D4">
+        <v>-95.2</v>
       </c>
     </row>
   </sheetData>
@@ -699,41 +699,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-9.6</v>
-      </c>
-      <c r="D2">
-        <v>-8.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-8.199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-7.7</v>
-      </c>
-      <c r="D4">
-        <v>-9.4</v>
+        <v>-56.1</v>
+      </c>
+      <c r="C2">
+        <v>-49.1</v>
+      </c>
+      <c r="D2">
+        <v>-107.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-33.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-115.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-25.9</v>
+      </c>
+      <c r="C4">
+        <v>-42.8</v>
+      </c>
+      <c r="D4">
+        <v>-130.1</v>
       </c>
     </row>
   </sheetData>
@@ -768,41 +768,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-9.6</v>
-      </c>
-      <c r="C2">
-        <v>-0.1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-0.9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-10.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.6</v>
+        <v>-98.5</v>
+      </c>
+      <c r="C2">
+        <v>-44.3</v>
+      </c>
+      <c r="D2">
+        <v>-50.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-43</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-38.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-37.4</v>
+      </c>
+      <c r="C4">
+        <v>-56.6</v>
+      </c>
+      <c r="D4">
+        <v>-58.2</v>
       </c>
     </row>
   </sheetData>
@@ -837,38 +837,38 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>1.1</v>
-      </c>
-      <c r="C2">
-        <v>-6.3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-3.1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-5.5</v>
+        <v>-37.6</v>
+      </c>
+      <c r="C2">
+        <v>-75.09999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-46.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-51.2</v>
+      </c>
+      <c r="C4">
+        <v>-55.7</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -909,38 +909,38 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.7</v>
-      </c>
-      <c r="D2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-4.8</v>
-      </c>
-      <c r="D4">
-        <v>-6.8</v>
+        <v>-43.6</v>
+      </c>
+      <c r="D2">
+        <v>-45.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-24.6</v>
+      </c>
+      <c r="D4">
+        <v>-46.1</v>
       </c>
     </row>
   </sheetData>
@@ -975,41 +975,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-6.1</v>
-      </c>
-      <c r="C2">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="D2">
-        <v>-16.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-1.2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-1.3</v>
-      </c>
-      <c r="C4">
-        <v>-1.6</v>
-      </c>
-      <c r="D4">
-        <v>-5.9</v>
+        <v>-24.7</v>
+      </c>
+      <c r="C2">
+        <v>-45.9</v>
+      </c>
+      <c r="D2">
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-23.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-37.1</v>
+      </c>
+      <c r="C4">
+        <v>-47.8</v>
+      </c>
+      <c r="D4">
+        <v>-32.5</v>
       </c>
     </row>
   </sheetData>
@@ -1044,41 +1044,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-10.4</v>
-      </c>
-      <c r="C2">
-        <v>-10.8</v>
-      </c>
-      <c r="D2">
-        <v>-8.199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-7.4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-10.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-5.9</v>
-      </c>
-      <c r="C4">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-9.199999999999999</v>
+        <v>-93</v>
+      </c>
+      <c r="C2">
+        <v>-30.2</v>
+      </c>
+      <c r="D2">
+        <v>-123.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-74.59999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-41.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-27.1</v>
+      </c>
+      <c r="C4">
+        <v>-34</v>
+      </c>
+      <c r="D4">
+        <v>-46.9</v>
       </c>
     </row>
   </sheetData>
@@ -1113,41 +1113,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
-      </c>
-      <c r="C2">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="D2">
-        <v>-6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1.1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-2.8</v>
-      </c>
-      <c r="C4">
-        <v>-5.5</v>
-      </c>
-      <c r="D4">
-        <v>-11.3</v>
+        <v>-38</v>
+      </c>
+      <c r="C2">
+        <v>-68.2</v>
+      </c>
+      <c r="D2">
+        <v>-54.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-51.8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-39</v>
+      </c>
+      <c r="C4">
+        <v>-69.09999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-57.9</v>
       </c>
     </row>
   </sheetData>
@@ -1196,27 +1196,27 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-7.2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-9.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-7.3</v>
-      </c>
-      <c r="C4">
-        <v>-0.5</v>
-      </c>
-      <c r="D4">
-        <v>-8.5</v>
+        <v>-27.6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-43.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-29.6</v>
+      </c>
+      <c r="C4">
+        <v>-36.1</v>
+      </c>
+      <c r="D4">
+        <v>-41.9</v>
       </c>
     </row>
   </sheetData>
@@ -1251,38 +1251,38 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-9</v>
-      </c>
-      <c r="C2">
-        <v>-10.8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-10.3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1.9</v>
-      </c>
-      <c r="C4">
-        <v>-0.4</v>
+        <v>-62.7</v>
+      </c>
+      <c r="C2">
+        <v>-65.7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-69.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-36.9</v>
+      </c>
+      <c r="C4">
+        <v>-49.4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1389,27 +1389,27 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-1.9</v>
-      </c>
-      <c r="C2">
-        <v>-6.8</v>
-      </c>
-      <c r="D2">
-        <v>-7.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-11.5</v>
+        <v>-54.7</v>
+      </c>
+      <c r="C2">
+        <v>-47.9</v>
+      </c>
+      <c r="D2">
+        <v>-39.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-26.6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-76.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1458,27 +1458,27 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-17.1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-16.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1.7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-10.8</v>
+        <v>-38.3</v>
+      </c>
+      <c r="C2">
+        <v>-34.2</v>
+      </c>
+      <c r="D2">
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-46.7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-73.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1527,27 +1527,27 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
+        <v>-36.1</v>
+      </c>
+      <c r="C2">
+        <v>-68.8</v>
+      </c>
+      <c r="D2">
+        <v>-45.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-55.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-40.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1596,21 +1596,21 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-3.7</v>
-      </c>
-      <c r="C2">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.3</v>
+        <v>-48.8</v>
+      </c>
+      <c r="C2">
+        <v>-51.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-49.8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1679,27 +1679,27 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-7</v>
-      </c>
-      <c r="C4">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-2.2</v>
+        <v>-28.9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-39.2</v>
+      </c>
+      <c r="C4">
+        <v>-33.8</v>
+      </c>
+      <c r="D4">
+        <v>-33.7</v>
       </c>
     </row>
   </sheetData>
@@ -1748,27 +1748,27 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-8</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-7.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-9.6</v>
-      </c>
-      <c r="C4">
-        <v>-17.9</v>
-      </c>
-      <c r="D4">
-        <v>-9.5</v>
+        <v>-47.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-27.7</v>
+      </c>
+      <c r="C4">
+        <v>-50.1</v>
+      </c>
+      <c r="D4">
+        <v>-34.2</v>
       </c>
     </row>
   </sheetData>
@@ -1817,24 +1817,24 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-5.8</v>
+        <v>-37.4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-39.4</v>
+      </c>
+      <c r="C4">
+        <v>-42.9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1875,38 +1875,38 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-6.7</v>
-      </c>
-      <c r="D2">
-        <v>-7.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-6.7</v>
-      </c>
-      <c r="D4">
-        <v>-9.699999999999999</v>
+        <v>-33.6</v>
+      </c>
+      <c r="D2">
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-50.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-39.5</v>
+      </c>
+      <c r="D4">
+        <v>-62.3</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1941,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-7.7</v>
-      </c>
-      <c r="C2">
-        <v>-8.9</v>
-      </c>
-      <c r="D2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-9.6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-10.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-10</v>
-      </c>
-      <c r="D4">
-        <v>-9.199999999999999</v>
+        <v>-53.2</v>
+      </c>
+      <c r="C2">
+        <v>-36</v>
+      </c>
+      <c r="D2">
+        <v>-40.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-65.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-94.09999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-20.1</v>
+      </c>
+      <c r="C4">
+        <v>-39.6</v>
+      </c>
+      <c r="D4">
+        <v>-67.2</v>
       </c>
     </row>
   </sheetData>
@@ -2010,41 +2010,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-9</v>
-      </c>
-      <c r="C2">
-        <v>-7.6</v>
-      </c>
-      <c r="D2">
-        <v>-17.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-9.6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-19.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-10.8</v>
-      </c>
-      <c r="C4">
-        <v>-10.6</v>
-      </c>
-      <c r="D4">
-        <v>-7.9</v>
+        <v>-42.1</v>
+      </c>
+      <c r="C2">
+        <v>-29.5</v>
+      </c>
+      <c r="D2">
+        <v>-50.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-55.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-39.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-37.3</v>
+      </c>
+      <c r="C4">
+        <v>-52.1</v>
+      </c>
+      <c r="D4">
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
@@ -2079,41 +2079,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-14.4</v>
-      </c>
-      <c r="D2">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-16.5</v>
+        <v>-33.1</v>
+      </c>
+      <c r="C2">
+        <v>-36.5</v>
+      </c>
+      <c r="D2">
+        <v>-46.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-59.3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-41.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-45.3</v>
+      </c>
+      <c r="C4">
+        <v>-75.7</v>
+      </c>
+      <c r="D4">
+        <v>-36.5</v>
       </c>
     </row>
   </sheetData>
